--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.576169</v>
+        <v>0.4723746666666667</v>
       </c>
       <c r="H2">
-        <v>1.728507</v>
+        <v>1.417124</v>
       </c>
       <c r="I2">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="J2">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>94.32577087752134</v>
+        <v>75.3360300241209</v>
       </c>
       <c r="R2">
-        <v>848.9319378976919</v>
+        <v>678.0242702170881</v>
       </c>
       <c r="S2">
-        <v>0.008963100257518937</v>
+        <v>0.007985705226136456</v>
       </c>
       <c r="T2">
-        <v>0.008963100257518933</v>
+        <v>0.007985705226136456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.576169</v>
+        <v>0.4723746666666667</v>
       </c>
       <c r="H3">
-        <v>1.728507</v>
+        <v>1.417124</v>
       </c>
       <c r="I3">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="J3">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>99.42285665799299</v>
+        <v>81.51226250087599</v>
       </c>
       <c r="R3">
-        <v>894.8057099219369</v>
+        <v>733.610362507884</v>
       </c>
       <c r="S3">
-        <v>0.009447439695686507</v>
+        <v>0.008640392922736148</v>
       </c>
       <c r="T3">
-        <v>0.009447439695686505</v>
+        <v>0.008640392922736148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.576169</v>
+        <v>0.4723746666666667</v>
       </c>
       <c r="H4">
-        <v>1.728507</v>
+        <v>1.417124</v>
       </c>
       <c r="I4">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="J4">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>64.23602415577234</v>
+        <v>35.13886766838978</v>
       </c>
       <c r="R4">
-        <v>578.124217401951</v>
+        <v>316.249809015508</v>
       </c>
       <c r="S4">
-        <v>0.006103887827221594</v>
+        <v>0.003724760106022749</v>
       </c>
       <c r="T4">
-        <v>0.006103887827221594</v>
+        <v>0.00372476010602275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.576169</v>
+        <v>0.4723746666666667</v>
       </c>
       <c r="H5">
-        <v>1.728507</v>
+        <v>1.417124</v>
       </c>
       <c r="I5">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="J5">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>34.41708838740333</v>
+        <v>27.59358397417022</v>
       </c>
       <c r="R5">
-        <v>309.7537954866299</v>
+        <v>248.342255767532</v>
       </c>
       <c r="S5">
-        <v>0.00327040861599469</v>
+        <v>0.002924951416736638</v>
       </c>
       <c r="T5">
-        <v>0.00327040861599469</v>
+        <v>0.002924951416736638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.576169</v>
+        <v>0.4723746666666667</v>
       </c>
       <c r="H6">
-        <v>1.728507</v>
+        <v>1.417124</v>
       </c>
       <c r="I6">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="J6">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>50.10249372301433</v>
+        <v>32.94634553426133</v>
       </c>
       <c r="R6">
-        <v>450.922443507129</v>
+        <v>296.517109808352</v>
       </c>
       <c r="S6">
-        <v>0.004760879982356009</v>
+        <v>0.003492350255658675</v>
       </c>
       <c r="T6">
-        <v>0.004760879982356008</v>
+        <v>0.003492350255658676</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>51.123939</v>
       </c>
       <c r="I7">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J7">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>2789.867183916742</v>
+        <v>2717.810582175819</v>
       </c>
       <c r="R7">
-        <v>25108.80465525068</v>
+        <v>24460.29523958237</v>
       </c>
       <c r="S7">
-        <v>0.2651010327503923</v>
+        <v>0.2880910258050681</v>
       </c>
       <c r="T7">
-        <v>0.2651010327503923</v>
+        <v>0.2880910258050681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>51.123939</v>
       </c>
       <c r="I8">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J8">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>2940.62335818656</v>
@@ -948,10 +948,10 @@
         <v>26465.61022367905</v>
       </c>
       <c r="S8">
-        <v>0.27942630877888</v>
+        <v>0.31170943454348</v>
       </c>
       <c r="T8">
-        <v>0.2794263087788799</v>
+        <v>0.31170943454348</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>51.123939</v>
       </c>
       <c r="I9">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J9">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>1899.904704199769</v>
+        <v>1267.66417561754</v>
       </c>
       <c r="R9">
-        <v>17099.14233779793</v>
+        <v>11408.97758055786</v>
       </c>
       <c r="S9">
-        <v>0.1805342928560424</v>
+        <v>0.1343738504534117</v>
       </c>
       <c r="T9">
-        <v>0.1805342928560424</v>
+        <v>0.1343738504534117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>51.123939</v>
       </c>
       <c r="I10">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J10">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>1017.951982419057</v>
+        <v>995.4617266286195</v>
       </c>
       <c r="R10">
-        <v>9161.567841771508</v>
+        <v>8959.155539657577</v>
       </c>
       <c r="S10">
-        <v>0.09672866270670986</v>
+        <v>0.1055200799698597</v>
       </c>
       <c r="T10">
-        <v>0.09672866270670985</v>
+        <v>0.1055200799698597</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>51.123939</v>
       </c>
       <c r="I11">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J11">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>1481.878194790803</v>
+        <v>1188.567097421608</v>
       </c>
       <c r="R11">
-        <v>13336.90375311723</v>
+        <v>10697.10387679447</v>
       </c>
       <c r="S11">
-        <v>0.1408122372685154</v>
+        <v>0.1259894698254553</v>
       </c>
       <c r="T11">
-        <v>0.1408122372685153</v>
+        <v>0.1259894698254553</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.08589233333333333</v>
+        <v>0.1331983333333333</v>
       </c>
       <c r="H12">
-        <v>0.257677</v>
+        <v>0.399595</v>
       </c>
       <c r="I12">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="J12">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>14.06160441491244</v>
+        <v>21.24295468673778</v>
       </c>
       <c r="R12">
-        <v>126.554439734212</v>
+        <v>191.18659218064</v>
       </c>
       <c r="S12">
-        <v>0.001336173232192121</v>
+        <v>0.002251777459021227</v>
       </c>
       <c r="T12">
-        <v>0.001336173232192121</v>
+        <v>0.002251777459021227</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.08589233333333333</v>
+        <v>0.1331983333333333</v>
       </c>
       <c r="H13">
-        <v>0.257677</v>
+        <v>0.399595</v>
       </c>
       <c r="I13">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="J13">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>14.821451943823</v>
+        <v>22.984504202905</v>
       </c>
       <c r="R13">
-        <v>133.393067494407</v>
+        <v>206.860537826145</v>
       </c>
       <c r="S13">
-        <v>0.001408376083212513</v>
+        <v>0.002436383696811818</v>
       </c>
       <c r="T13">
-        <v>0.001408376083212513</v>
+        <v>0.002436383696811818</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08589233333333333</v>
+        <v>0.1331983333333333</v>
       </c>
       <c r="H14">
-        <v>0.257677</v>
+        <v>0.399595</v>
       </c>
       <c r="I14">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="J14">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>9.575978573640111</v>
+        <v>9.908318415290555</v>
       </c>
       <c r="R14">
-        <v>86.183807162761</v>
+        <v>89.17486573761501</v>
       </c>
       <c r="S14">
-        <v>0.0009099364385883184</v>
+        <v>0.001050293068613728</v>
       </c>
       <c r="T14">
-        <v>0.0009099364385883184</v>
+        <v>0.001050293068613728</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08589233333333333</v>
+        <v>0.1331983333333333</v>
       </c>
       <c r="H15">
-        <v>0.257677</v>
+        <v>0.399595</v>
       </c>
       <c r="I15">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="J15">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>5.130723846881111</v>
+        <v>7.780729271509444</v>
       </c>
       <c r="R15">
-        <v>46.17651462192999</v>
+        <v>70.026563443585</v>
       </c>
       <c r="S15">
-        <v>0.0004875358219224242</v>
+        <v>0.0008247661893884211</v>
       </c>
       <c r="T15">
-        <v>0.0004875358219224242</v>
+        <v>0.0008247661893884212</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08589233333333333</v>
+        <v>0.1331983333333333</v>
       </c>
       <c r="H16">
-        <v>0.257677</v>
+        <v>0.399595</v>
       </c>
       <c r="I16">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="J16">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>7.469024004568777</v>
+        <v>9.290079727506667</v>
       </c>
       <c r="R16">
-        <v>67.22121604111899</v>
+        <v>83.61071754756001</v>
       </c>
       <c r="S16">
-        <v>0.0007097276847669979</v>
+        <v>0.0009847590615993578</v>
       </c>
       <c r="T16">
-        <v>0.0007097276847669978</v>
+        <v>0.000984759061599358</v>
       </c>
     </row>
   </sheetData>
